--- a/build/exe.win-amd64-3.8/comparaison_adoucisseurs.xlsx
+++ b/build/exe.win-amd64-3.8/comparaison_adoucisseurs.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-11-13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-11-13 10 47 34" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-11-13" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1243,6 +1244,825 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 10</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PERLA10017-L</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>manomano</t>
+        </is>
+      </c>
+      <c r="D1" t="n">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 10</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PERLA10017-L</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2166.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 10</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PERLA10017-L</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>domomat</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1698.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 10</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PERLA10017-L</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>eau-go</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO AQA PERLA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>P0002440-L</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>manomano</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO AQA PERLA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>P0002440-L</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO AQA PERLA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>P0002440-L</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>domomat</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2940.82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO AQA PERLA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>P0002440-L</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>eau-go</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 05</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PERLA05017-L</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>manomano</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PERLA05017-L</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 05</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PERLA05017-L</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>domomat</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 05</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PERLA05017-L</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>eau-go</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1691.05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Adoucisseur CILLIT Access 16L</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>C0025202A-L</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>manomano</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Adoucisseur CILLIT Access 16L</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>C0025202A-L</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Adoucisseur CILLIT Access 16L</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>C0025202A-L</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>domomat</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Adoucisseur CILLIT Access 16L</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>C0025202A-L</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>eau-go</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>971.52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Adoucisseur CILLIT Aquium 90 Bio Compact</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>C0025216-L</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>manomano</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Adoucisseur CILLIT Aquium 90 Bio Compact</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>C0025216-L</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Adoucisseur CILLIT Aquium 90 Bio Compact</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>C0025216-L</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>domomat</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Adoucisseur CILLIT Aquium 90 Bio Compact</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>C0025216-L</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>eau-go</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>1615.15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PERLA30017-L</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>manomano</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PERLA30017-L</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2514.06</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PERLA30017-L</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>domomat</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>2137.9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PERLA30017-L</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>eau-go</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2138.64</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Volumeco</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>VOLU017-L</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>manomano</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Volumeco</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>VOLU017-L</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1333.8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Volumeco</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>VOLU017-L</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>domomat</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1189.9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Volumeco</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>VOLU017-L</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>eau-go</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla Compact</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PERLACO017-L</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>manomano</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla Compact</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PERLACO017-L</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2169.65</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla Compact</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PERLACO017-L</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>domomat</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1984.9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla Compact</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PERLACO017-L</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>eau-go</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 20</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PERLA20017-L</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>manomano</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 20</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PERLA20017-L</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>1865.4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 20</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PERLA20017-L</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>domomat</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1877.9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Adoucisseur BWT PERMO Aqa Perla 20</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PERLA20017-L</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>eau-go</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1878.27</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Adoucisseur WATERSIDE 16L</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>C0025204-L</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>manomano</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Adoucisseur WATERSIDE 16L</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>C0025204-L</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Adoucisseur WATERSIDE 16L</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>C0025204-L</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>domomat</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Adoucisseur WATERSIDE 16L</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>C0025204-L</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>eau-go</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
